--- a/Metodos_Numericos_Basicos_para_Ingenieria.xlsx
+++ b/Metodos_Numericos_Basicos_para_Ingenieria.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDC\Documents\Autoria\Métodos Numéricos Básicos\2a. Ed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ca.de961\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89527FF3-7E8B-42F9-8ADD-E3CD1698579C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB354CC-1544-4240-B21C-909FE60016E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="uWlmMvVqSGSXVzslVy704b7Wy1dIj02q+gSaVxTV0lKbwMFQiUIPizzDhvyb/7LGCr26MwNFny3TGk+5lu3/KA==" workbookSaltValue="MZDNNwOIlDc54MNjuUnP7w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="3" r:id="rId1"/>
@@ -50,6 +50,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -838,6 +839,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,15 +881,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -907,7 +908,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1103,7 +1104,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1859,7 +1860,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2610,7 +2611,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3366,7 +3367,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4122,7 +4123,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4437,7 +4438,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4752,7 +4753,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5067,7 +5068,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5382,7 +5383,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5763,7 +5764,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8148,7 +8149,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8317,7 +8318,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8602,7 +8603,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8798,7 +8799,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9069,7 +9070,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9946,7 +9947,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10148,7 +10149,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10350,7 +10351,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10624,7 +10625,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11017,7 +11018,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11768,7 +11769,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12526,22 +12527,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>75151</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4210051</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>132925</xdr:rowOff>
+      <xdr:colOff>4332358</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>169552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FF5871-2C3F-4AC3-9AFB-5A3422178E9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A74BBAE-B365-4A0B-9D5B-6CA375750671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12563,8 +12564,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495301" y="1027651"/>
-          <a:ext cx="3714750" cy="3105774"/>
+          <a:off x="638175" y="1038225"/>
+          <a:ext cx="3694183" cy="3703327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13733,7 +13734,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14056,17 +14057,17 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="55" t="s">
         <v>67</v>
       </c>
     </row>
@@ -14081,7 +14082,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="56" t="s">
         <v>125</v>
       </c>
     </row>
@@ -14091,7 +14092,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+Hv2h7oMqQRo/lYxDphRcvCjY7TNm4+vzz1ZvFlDk4Tzc00KjAfY2L9XyT9RGdatkZtgoQlVagnsfHCJNJPo7A==" saltValue="xWyRnDQgmcxWx4CMHUtKag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TJ8XmezPfQ/YyEmf1TvS2zSc0taNqLfF0SWtwBmZZyE9oyLZs4TtAanQ+jotqbrWZfTSzCeuaU33RKaPdWhi5w==" saltValue="O2F5NPEp+jqcdIjnC+1pbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -14109,29 +14110,29 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
@@ -15150,7 +15151,7 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -15181,29 +15182,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="M1" s="66" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="M1" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
@@ -15421,11 +15422,11 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -15495,11 +15496,11 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="7"/>
       <c r="G7" s="20"/>
       <c r="H7" s="9"/>
@@ -15535,12 +15536,12 @@
       <c r="AE7" s="7"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="11"/>
       <c r="F8" s="7"/>
       <c r="K8" s="7"/>
@@ -28607,7 +28608,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -29490,7 +29491,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -29501,17 +29502,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="N1" s="61" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="N1" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="61"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N2" s="47" t="s">
@@ -30656,23 +30657,23 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="58"/>
       <c r="D3" s="47" t="s">
         <v>3</v>
       </c>
@@ -30744,7 +30745,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -30752,10 +30753,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
@@ -30846,7 +30847,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -30862,13 +30863,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
@@ -31022,16 +31023,16 @@
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -36785,21 +36786,21 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
@@ -37063,22 +37064,22 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
@@ -37751,7 +37752,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -37767,16 +37768,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
@@ -37789,22 +37790,22 @@
       <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="61"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -37917,11 +37918,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
       <c r="E8" s="47" t="s">
         <v>91</v>
       </c>
@@ -37987,24 +37988,24 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
@@ -39016,7 +39017,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -39026,25 +39027,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="D3" s="61" t="s">
+      <c r="B3" s="63"/>
+      <c r="D3" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
@@ -41733,7 +41734,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -41743,25 +41744,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="D3" s="61" t="s">
+      <c r="B3" s="63"/>
+      <c r="D3" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
